--- a/Hardware-Designing/Documents/Tyler_BOM_LSCS.xlsx
+++ b/Hardware-Designing/Documents/Tyler_BOM_LSCS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eSpark\Tyler-Library\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eSpark\Task Tyler\Tyler\Tyler\Deliverable\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB9CC17-A582-4F39-9649-2C466509C056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47033712-50BB-40B4-9E27-5F5F5D4839B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="240">
   <si>
     <t>S. No.</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Component Cost </t>
-  </si>
-  <si>
     <t>Unit Cost(1)</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>Quantity (Per Board)</t>
-  </si>
-  <si>
-    <t>Single Board Cost</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -276,9 +270,6 @@
     <t>C7, C8</t>
   </si>
   <si>
-    <t>C9, C11, C12, C15, C18, C21, C23, C26, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C72, C73, C74, C75, C76, C77, C78, C79, C80, C81, C82, C83, C84, C85, C86, C87, C88, C89, C90, C91, C92, C93, C94, C95, C96, C97, C98, C99, C100, C101, C102, C103, C104, C105, C106, C107, C108, C109, C110, C111, C112, C113, C114, C115, C116, C117, C118, C119, C120, C121, C122, C123, C124, C125, C126, C127, C128, C129, C130, C131, C132, C133, C134, C135, C136, C137, C138, C139, C140, C141, C142, C143, C144, C145, C146, C147, C148, C149, C150, C151, C152, C153, C154, C155, C156, C157, C158, C159, C160, C161, C162, C163, C164, C165, C166, C167, C168, C169, C170, C171, C172, C173, C174, C175, C176, C177, C178, C179, C180, C181, C182, C183, C184, C185, C186, C187, C188, C189</t>
-  </si>
-  <si>
     <t>C10, C13, C16, C19, C22, C24, C25, C27, C29</t>
   </si>
   <si>
@@ -306,9 +297,6 @@
     <t>L9</t>
   </si>
   <si>
-    <t>LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, LED9, LED10, LED11, LED12, LED13, LED14, LED15, LED16, LED17, LED18, LED19, LED20, LED21, LED22, LED23, LED24, LED25, LED26, LED27, LED28, LED29, LED30, LED31, LED32, LED33, LED34, LED35, LED36, LED37, LED38, LED39, LED40, LED41, LED42, LED43, LED44, LED45, LED46, LED47, LED48, LED49, LED50, LED51, LED52, LED53, LED54, LED55, LED56, LED57, LED58, LED59, LED60, LED61, LED62, LED63, LED64, LED65, LED66, LED67, LED68, LED69, LED70, LED71, LED72, LED73, LED74, LED75, LED76, LED77, LED78, LED79, LED80, LED81, LED82, LED83, LED84, LED85, LED86, LED87, LED88, LED89, LED90, LED91, LED92, LED93, LED94, LED95, LED96, LED97, LED98, LED99, LED100, LED101, LED102, LED103, LED104, LED105, LED106, LED107, LED108, LED109, LED110, LED111, LED112, LED113, LED114, LED115, LED116, LED117, LED118, LED119, LED120, LED121, LED122, LED123, LED124, LED125, LED126, LED127, LED128, LED129, LED130, LED131, LED132, LED133, LED134, LED135, LED136, LED137, LED138, LED139, LED140, LED141, LED142, LED143, LED144, LED145, LED146, LED147, LED148, LED149, LED150, LED151, LED152, LED153, LED154, LED155, LED156, LED157, LED158, LED159, LED160</t>
-  </si>
-  <si>
     <t>LS1, LS2, LS3, LS4</t>
   </si>
   <si>
@@ -735,19 +723,25 @@
     <t>C191, C192a</t>
   </si>
   <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q8, Q9, Q10, Q11</t>
-  </si>
-  <si>
     <t>Q12,Q13a</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R20, R21, R22, R23, R24, R25, R26, R27, R32, R33, R33a, R34, R34a, R35a</t>
-  </si>
-  <si>
     <t>Bill of Material (BOM) for  Task Tyler</t>
   </si>
   <si>
     <t>Out of stock on LCSC</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4, Q5, Q8, Q9, Q10, Q11,QU1</t>
+  </si>
+  <si>
+    <t>LED0, LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, LED9, LED10, LED11, LED12, LED13, LED14, LED15, LED16, LED17, LED18, LED19, LED20, LED21, LED22, LED23, LED24, LED25, LED26, LED27, LED28, LED29, LED30, LED31, LED32, LED33, LED34, LED35, LED36, LED37, LED38, LED39, LED40, LED41, LED42, LED43, LED44, LED45, LED46, LED47, LED48, LED49, LED50, LED51, LED52, LED53, LED54, LED55, LED56, LED57, LED58, LED59, LED60, LED61, LED62, LED63, LED64, LED65, LED66, LED67, LED68, LED69, LED70, LED71, LED72, LED73, LED74, LED75, LED76, LED77, LED78, LED79, LED80, LED81, LED82, LED83, LED84, LED85, LED86, LED87, LED88, LED89, LED90, LED91, LED92, LED93, LED94, LED95, LED96, LED97, LED98, LED99, LED100, LED101, LED102, LED103, LED104, LED105, LED106, LED107, LED108, LED109, LED110, LED111, LED112, LED113, LED114, LED115, LED116, LED117, LED118, LED119, LED120, LED121, LED122, LED123, LED124, LED125, LED126, LED127, LED128, LED129, LED130, LED131, LED132, LED133, LED134, LED135, LED136, LED137, LED138, LED139, LED140, LED141, LED142, LED143, LED144, LED145, LED146, LED147, LED148, LED149, LED150, LED151, LED152, LED153, LED154, LED155, LED156, LED157, LED158, LED159, LED160</t>
+  </si>
+  <si>
+    <t>C9, C11, C12, C15, C18, C21, C23, C26, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C72, C73, C74, C75, C76, C77, C78, C79, C80, C81, C82, C83, C84, C85, C86, C87, C88, C89, C90, C91, C92, C93, C94, C95, C96, C97, C98, C99, C100, C101, C102, C103, C104, C105, C106, C107, C108, C109, C110, C111, C112, C113, C114, C115, C116, C117, C118, C119, C120, C121, C122, C123, C124, C125, C126, C127, C128, C129, C130, C131, C132, C133, C134, C135, C136, C137, C138, C139, C140, C141, C142, C143, C144, C145, C146, C147, C148, C149, C150, C151, C152, C153, C154, C155, C156, C157, C158, C159, C160, C161, C162, C163, C164, C165, C166, C167, C168, C169, C170, C171, C172, C173, C174, C175, C176, C177, C178, C179, C180, C181, C182, C183, C184, C185, C186, C187, C188, C189. C190</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R20, R21, R22, R23, R24, R25, R26, R27, R32, R33, R33a, R34, R34a, R35a, RU1, RU2</t>
   </si>
 </sst>
 </file>
@@ -760,7 +754,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00000_ ;_-[$$-409]* \-#,##0.00000\ ;_-[$$-409]* &quot;-&quot;?????_ ;_-@_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,20 +793,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -899,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -968,15 +949,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1017,15 +989,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1087,19 +1050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1225,19 +1175,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,28 +1205,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,16 +1232,16 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,16 +1250,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1336,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1348,7 +1280,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,16 +1295,13 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1387,94 +1316,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,70 +1424,58 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1900,16 +1823,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1927,2391 +1850,2297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19"/>
+      <c r="A1" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="G2" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="T2" s="29" t="s">
         <v>9</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="54">
+      <c r="B3" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="45">
         <v>6</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="45">
         <v>40</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="16">
         <f>K3*5</f>
         <v>30</v>
       </c>
-      <c r="N3" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3" s="33">
+      <c r="N3" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="25">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="18">
         <f>K3*O3</f>
         <v>0.126</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="18">
         <f>O3*L3</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="46">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="19">
         <f>R3*M3</f>
         <v>0.63</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>219</v>
+      <c r="T3" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="39">
+      <c r="B4" s="94"/>
+      <c r="C4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="31">
         <v>2</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="31">
         <v>100</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="6">
         <f>K4*5</f>
         <v>10</v>
       </c>
-      <c r="N4" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="57">
+      <c r="N4" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" s="48">
         <v>2E-3</v>
       </c>
-      <c r="P4" s="58">
+      <c r="P4" s="49">
         <f>K4*O4</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="18">
         <f t="shared" ref="Q4:Q39" si="0">O4*L4</f>
         <v>0.2</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="7">
         <v>2E-3</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="19">
         <f t="shared" ref="S4:S39" si="1">R4*M4</f>
         <v>0.02</v>
       </c>
-      <c r="T4" s="47"/>
+      <c r="T4" s="39"/>
     </row>
     <row r="5" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="39">
-        <v>168</v>
-      </c>
-      <c r="L5" s="39">
+      <c r="B5" s="94"/>
+      <c r="C5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="31">
+        <v>169</v>
+      </c>
+      <c r="L5" s="31">
         <v>900</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="6">
         <f t="shared" ref="M5:M39" si="2">K5*5</f>
-        <v>840</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O5" s="59">
+        <v>845</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="50">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="P5" s="58">
+      <c r="P5" s="49">
         <f t="shared" ref="P5:P39" si="3">K5*O5</f>
-        <v>0.52079999999999993</v>
-      </c>
-      <c r="Q5" s="26">
+        <v>0.52390000000000003</v>
+      </c>
+      <c r="Q5" s="18">
         <f t="shared" si="0"/>
         <v>2.79</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="50">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>2.6040000000000001</v>
-      </c>
-      <c r="T5" s="48" t="s">
-        <v>220</v>
+        <v>2.6194999999999999</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="39">
+      <c r="B6" s="94"/>
+      <c r="C6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="31">
         <v>9</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="31">
         <v>50</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="6">
         <f>K6*5</f>
         <v>45</v>
       </c>
-      <c r="N6" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="12">
+      <c r="N6" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O6" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="49">
         <f t="shared" si="3"/>
         <v>6.3E-2</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="18">
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="19">
         <f t="shared" si="1"/>
         <v>0.315</v>
       </c>
-      <c r="T6" s="8"/>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+      <c r="A7" s="43">
         <v>5</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K7" s="39">
+      <c r="B7" s="94"/>
+      <c r="C7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="31">
         <v>3</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="31">
         <v>20</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N7" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="N7" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="10">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="49">
         <f t="shared" si="3"/>
         <v>0.1845</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="18">
         <f t="shared" si="0"/>
         <v>1.23</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="10">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="19">
         <f t="shared" si="1"/>
         <v>0.92249999999999999</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>187</v>
+      <c r="T7" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="39">
+      <c r="B8" s="94"/>
+      <c r="C8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="31">
         <v>1</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="31">
         <v>50</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N8" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="N8" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="7">
         <v>1.17E-2</v>
       </c>
-      <c r="P8" s="58">
+      <c r="P8" s="49">
         <f>K8*O8</f>
         <v>1.17E-2</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="18">
         <f t="shared" si="0"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="7">
         <v>1.17E-2</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="19">
         <f t="shared" si="1"/>
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="38" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="39">
+      <c r="I9" s="8"/>
+      <c r="J9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="31">
         <v>2</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="31">
         <v>10</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N9" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="44">
+      <c r="N9" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O9" s="36">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="P9" s="58">
+      <c r="P9" s="49">
         <f t="shared" si="3"/>
         <v>0.17019999999999999</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="18">
         <f t="shared" si="0"/>
         <v>0.85099999999999998</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="9">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="19">
         <f t="shared" si="1"/>
         <v>0.85099999999999998</v>
       </c>
-      <c r="T9" s="8"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="39">
+      <c r="B10" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="31">
         <v>4</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="31">
         <v>20</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N10" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="44">
+      <c r="N10" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O10" s="36">
         <v>2.98E-2</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="49">
         <f t="shared" si="3"/>
         <v>0.1192</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="18">
         <f t="shared" si="0"/>
         <v>0.59599999999999997</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="7">
         <v>2.98E-2</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="19">
         <f t="shared" si="1"/>
         <v>0.59599999999999997</v>
       </c>
-      <c r="T10" s="8"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
-      <c r="B11" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="39">
+      <c r="B11" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="31">
         <v>1</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="31">
         <v>20</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N11" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O11" s="12">
+      <c r="N11" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O11" s="7">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="49">
         <f t="shared" si="3"/>
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="18">
         <f t="shared" si="0"/>
         <v>0.51400000000000001</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="7">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="19">
         <f t="shared" si="1"/>
         <v>0.1285</v>
       </c>
-      <c r="T11" s="9"/>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52">
+      <c r="A12" s="42">
         <v>10</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="93">
+      <c r="B12" s="94"/>
+      <c r="C12" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="67">
         <v>1</v>
       </c>
-      <c r="L12" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="94">
+      <c r="L12" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" s="68">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N12" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
+      <c r="N12" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="O12" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" s="73"/>
+      <c r="T12" s="74"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51">
+      <c r="A13" s="43">
         <v>11</v>
       </c>
-      <c r="B13" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="39">
+      <c r="B13" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="31">
         <v>2</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="31">
         <v>10</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N13" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" s="15">
+      <c r="N13" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O13" s="10">
         <v>0.42</v>
       </c>
-      <c r="P13" s="58">
+      <c r="P13" s="49">
         <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="18">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="10">
         <v>0.1085</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="19">
         <f t="shared" si="1"/>
         <v>1.085</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
+      <c r="A14" s="42">
         <v>12</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="39">
+      <c r="B14" s="94"/>
+      <c r="C14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="31">
         <v>7</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="31">
         <v>50</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N14" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" s="15">
+      <c r="N14" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="10">
         <v>1.37E-2</v>
       </c>
-      <c r="P14" s="61">
+      <c r="P14" s="52">
         <f t="shared" si="3"/>
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="18">
         <f t="shared" si="0"/>
         <v>0.68500000000000005</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="10">
         <v>1.37E-2</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="19">
         <f t="shared" si="1"/>
         <v>0.47950000000000004</v>
       </c>
-      <c r="T14" s="46"/>
+      <c r="T14" s="38"/>
     </row>
     <row r="15" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+      <c r="A15" s="42">
         <v>13</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="39">
+      <c r="B15" s="94"/>
+      <c r="C15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="31">
         <v>1</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="31">
         <v>100</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="37">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N15" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="15">
+      <c r="N15" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="10">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="P15" s="61">
+      <c r="P15" s="52">
         <f t="shared" si="3"/>
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="18">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="10">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="19">
         <f t="shared" si="1"/>
         <v>3.1E-2</v>
       </c>
-      <c r="T15" s="46"/>
+      <c r="T15" s="38"/>
     </row>
     <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52">
+      <c r="A16" s="43">
         <v>14</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="39">
+      <c r="B16" s="94"/>
+      <c r="C16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="31">
         <v>2</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="31">
         <v>100</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N16" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O16" s="15">
+      <c r="N16" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" s="10">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="P16" s="58">
+      <c r="P16" s="49">
         <f t="shared" si="3"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="18">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="9">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="19">
         <f t="shared" si="1"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T16" s="46"/>
+      <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+      <c r="A17" s="42">
         <v>15</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" s="39">
+      <c r="B17" s="94"/>
+      <c r="C17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="31">
         <v>1</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="31">
         <v>20</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N17" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="N17" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P17" s="58">
+      <c r="P17" s="49">
         <f t="shared" si="3"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="18">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="19">
         <f t="shared" si="1"/>
         <v>0.17500000000000002</v>
       </c>
-      <c r="T17" s="47"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52">
+      <c r="A18" s="42">
         <v>16</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="39">
-        <v>160</v>
-      </c>
-      <c r="L18" s="39">
+      <c r="B18" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="31">
+        <v>161</v>
+      </c>
+      <c r="L18" s="31">
         <v>800</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="6">
         <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" s="12">
+        <v>805</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" s="7">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="P18" s="58">
+      <c r="P18" s="49">
         <f t="shared" si="3"/>
-        <v>14.112</v>
-      </c>
-      <c r="Q18" s="26">
+        <v>14.200200000000001</v>
+      </c>
+      <c r="Q18" s="18">
         <f t="shared" si="0"/>
         <v>70.56</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="7">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="19">
         <f t="shared" si="1"/>
-        <v>70.64</v>
-      </c>
-      <c r="T18" s="9"/>
+        <v>71.081500000000005</v>
+      </c>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
+      <c r="A19" s="43">
         <v>17</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="39">
+      <c r="B19" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="31">
         <v>4</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="31">
         <v>20</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N19" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" s="12">
+      <c r="N19" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" s="7">
         <v>0.47249999999999998</v>
       </c>
-      <c r="P19" s="58">
+      <c r="P19" s="49">
         <f t="shared" si="3"/>
         <v>1.89</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="18">
         <f t="shared" si="0"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="7">
         <v>0.35170000000000001</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="19">
         <f t="shared" si="1"/>
         <v>7.0340000000000007</v>
       </c>
-      <c r="T19" s="9"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52">
+      <c r="A20" s="42">
         <v>18</v>
       </c>
-      <c r="B20" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="93">
+      <c r="B20" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="67">
         <v>9</v>
       </c>
-      <c r="L20" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" s="94">
+      <c r="L20" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="68">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N20" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="O20" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
+      <c r="N20" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
+      <c r="A21" s="42">
         <v>19</v>
       </c>
-      <c r="B21" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="39">
+      <c r="B21" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="31">
         <v>2</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="31">
         <v>10</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="6">
         <f>K21*5</f>
         <v>10</v>
       </c>
-      <c r="N21" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O21" s="12">
+      <c r="N21" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="7">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="49">
         <f>K21*O21</f>
         <v>0.14419999999999999</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="18">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="7">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="19">
         <f t="shared" si="1"/>
         <v>0.72099999999999997</v>
       </c>
-      <c r="T21" s="8"/>
+      <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52">
+      <c r="A22" s="43">
         <v>20</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="39">
-        <v>9</v>
-      </c>
-      <c r="L22" s="39">
+      <c r="B22" s="94"/>
+      <c r="C22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="31">
+        <v>10</v>
+      </c>
+      <c r="L22" s="31">
         <v>60</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="6">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="N22" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O22" s="12">
+        <v>50</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" s="7">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="P22" s="58">
+      <c r="P22" s="49">
         <f t="shared" si="3"/>
-        <v>0.31949999999999995</v>
-      </c>
-      <c r="Q22" s="26">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Q22" s="18">
         <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="7">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="19">
         <f t="shared" si="1"/>
-        <v>1.5974999999999999</v>
-      </c>
-      <c r="T22" s="9"/>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
+      <c r="A23" s="42">
         <v>21</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="39">
+      <c r="B23" s="94"/>
+      <c r="C23" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="31">
         <v>2</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="31">
         <v>50</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N23" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O23" s="12">
+      <c r="N23" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" s="7">
         <v>1.66E-2</v>
       </c>
-      <c r="P23" s="58">
+      <c r="P23" s="49">
         <f t="shared" si="3"/>
         <v>3.32E-2</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="18">
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="7">
         <v>1.66E-2</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="19">
         <f t="shared" si="1"/>
         <v>0.16600000000000001</v>
       </c>
-      <c r="T23" s="9"/>
+      <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52">
+    <row r="24" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42">
         <v>22</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="38" t="s">
+      <c r="B24" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="39">
-        <v>24</v>
-      </c>
-      <c r="L24" s="39">
+      <c r="E24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="M24" s="11">
+      <c r="H24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="31">
+        <v>26</v>
+      </c>
+      <c r="L24" s="31">
+        <v>200</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="N24" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O24" s="12">
+        <v>130</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" s="7">
         <v>1.5E-3</v>
       </c>
-      <c r="P24" s="58">
+      <c r="P24" s="49">
         <f t="shared" si="3"/>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="Q24" s="26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Q24" s="18">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="19">
         <f t="shared" si="1"/>
-        <v>0.156</v>
-      </c>
-      <c r="T24" s="9"/>
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
+      <c r="A25" s="43">
         <v>23</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="39">
+      <c r="B25" s="94"/>
+      <c r="C25" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="31">
         <v>2</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="31">
         <v>50</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N25" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O25" s="12">
+      <c r="N25" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" s="7">
         <v>4.3E-3</v>
       </c>
-      <c r="P25" s="58">
+      <c r="P25" s="49">
         <f t="shared" si="3"/>
         <v>8.6E-3</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="18">
         <f t="shared" si="0"/>
         <v>0.215</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="7">
         <v>4.3E-3</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="19">
         <f t="shared" si="1"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="T25" s="9"/>
+      <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="42">
         <v>24</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="39">
+      <c r="B26" s="94"/>
+      <c r="C26" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="31">
         <v>2</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="31">
         <v>100</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N26" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O26" s="12">
+      <c r="N26" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="7">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P26" s="58">
+      <c r="P26" s="49">
         <f t="shared" si="3"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="18">
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="7">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="19">
         <f t="shared" si="1"/>
         <v>3.3999999999999996E-2</v>
       </c>
-      <c r="T26" s="9"/>
+      <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
+      <c r="A27" s="42">
         <v>25</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="39">
+      <c r="B27" s="94"/>
+      <c r="C27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="31">
         <v>2</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="31">
         <v>20</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N27" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O27" s="12">
+      <c r="N27" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" s="7">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="P27" s="58">
+      <c r="P27" s="49">
         <f t="shared" si="3"/>
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="18">
         <f t="shared" si="0"/>
         <v>0.85400000000000009</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="7">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27" s="19">
         <f t="shared" si="1"/>
         <v>0.42700000000000005</v>
       </c>
-      <c r="T27" s="9"/>
+      <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52">
+      <c r="A28" s="43">
         <v>26</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" s="39">
+      <c r="B28" s="94"/>
+      <c r="C28" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="31">
         <v>1</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="31">
         <v>100</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N28" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O28" s="12">
+      <c r="N28" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O28" s="7">
         <v>1.9E-3</v>
       </c>
-      <c r="P28" s="58">
+      <c r="P28" s="49">
         <f t="shared" si="3"/>
         <v>1.9E-3</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="18">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="7">
         <v>1.9E-3</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="19">
         <f t="shared" si="1"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="T28" s="9"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51">
+      <c r="A29" s="42">
         <v>27</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="K29" s="39">
+      <c r="B29" s="94"/>
+      <c r="C29" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="31">
         <v>4</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="31">
         <v>50</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N29" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O29" s="12">
+      <c r="N29" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O29" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P29" s="58">
+      <c r="P29" s="49">
         <f t="shared" si="3"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="18">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="19">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="T29" s="9"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52">
+      <c r="A30" s="42">
         <v>28</v>
       </c>
-      <c r="B30" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="93">
+      <c r="B30" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="67">
         <v>22</v>
       </c>
-      <c r="L30" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="M30" s="94">
+      <c r="L30" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="M30" s="68">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="N30" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="O30" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
+      <c r="N30" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="S30" s="73"/>
+      <c r="T30" s="74"/>
     </row>
     <row r="31" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51">
+      <c r="A31" s="43">
         <v>29</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="92"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" s="93">
+      <c r="B31" s="95"/>
+      <c r="C31" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="67">
         <v>2</v>
       </c>
-      <c r="L31" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="M31" s="94">
+      <c r="L31" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" s="68">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N31" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="O31" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
+      <c r="N31" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="O31" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="S31" s="73"/>
+      <c r="T31" s="74"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52">
+      <c r="A32" s="42">
         <v>30</v>
       </c>
-      <c r="B32" s="81" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="39">
+      <c r="B32" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="31">
         <v>1</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="31">
         <v>5</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N32" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O32" s="12">
+      <c r="N32" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" s="7">
         <v>0.28889999999999999</v>
       </c>
-      <c r="P32" s="58">
+      <c r="P32" s="49">
         <f t="shared" si="3"/>
         <v>0.28889999999999999</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="18">
         <f t="shared" si="0"/>
         <v>1.4444999999999999</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="7">
         <v>0.28889999999999999</v>
       </c>
-      <c r="S32" s="27">
+      <c r="S32" s="19">
         <f t="shared" si="1"/>
         <v>1.4444999999999999</v>
       </c>
-      <c r="T32" s="9"/>
+      <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51">
+    <row r="33" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
         <v>31</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33" s="106">
+      <c r="B33" s="96"/>
+      <c r="C33" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="84"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="85">
         <v>1</v>
       </c>
-      <c r="L33" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="108">
+      <c r="L33" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" s="87">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N33" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="O33" s="110">
+      <c r="N33" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="89">
         <v>0.47</v>
       </c>
-      <c r="P33" s="111">
+      <c r="P33" s="90">
         <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="110">
+      <c r="Q33" s="81"/>
+      <c r="R33" s="89">
         <v>0.47</v>
       </c>
-      <c r="S33" s="89">
+      <c r="S33" s="82">
         <f t="shared" si="1"/>
         <v>2.3499999999999996</v>
       </c>
-      <c r="T33" s="112"/>
+      <c r="T33" s="91"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43">
         <v>32</v>
       </c>
-      <c r="B34" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" s="54">
+      <c r="B34" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="45">
         <v>2</v>
       </c>
-      <c r="L34" s="54">
+      <c r="L34" s="45">
         <v>10</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="16">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N34" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="O34" s="25">
+      <c r="N34" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="17">
         <v>1.1901999999999999</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="18">
         <f t="shared" si="3"/>
         <v>2.3803999999999998</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="18">
         <f t="shared" si="0"/>
         <v>11.901999999999999</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="17">
         <v>0.86739999999999995</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34" s="19">
         <f t="shared" si="1"/>
         <v>8.6739999999999995</v>
       </c>
-      <c r="T34" s="7"/>
+      <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51">
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42">
         <v>33</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="I35" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="K35" s="85">
+      <c r="B35" s="94"/>
+      <c r="C35" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="K35" s="77">
         <v>1</v>
       </c>
-      <c r="L35" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="M35" s="45">
+      <c r="L35" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" s="37">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N35" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="104">
+      <c r="N35" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="79">
         <v>0.85</v>
       </c>
-      <c r="P35" s="87">
+      <c r="P35" s="80">
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="104">
+      <c r="Q35" s="81"/>
+      <c r="R35" s="79">
         <v>0.85</v>
       </c>
-      <c r="S35" s="89">
+      <c r="S35" s="82">
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="T35" s="90" t="s">
-        <v>241</v>
+      <c r="T35" s="83" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52">
+    <row r="36" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42">
         <v>34</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="39">
+      <c r="B36" s="94"/>
+      <c r="C36" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="31">
         <v>1</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="31">
         <v>5</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N36" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O36" s="12">
+      <c r="N36" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="P36" s="58">
+      <c r="P36" s="49">
         <f t="shared" si="3"/>
         <v>0.20499999999999999</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="18">
         <f t="shared" si="0"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="S36" s="27">
+      <c r="S36" s="19">
         <f t="shared" si="1"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="T36" s="9" t="s">
-        <v>217</v>
+      <c r="T36" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43">
         <v>35</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K37" s="39">
+      <c r="B37" s="94"/>
+      <c r="C37" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="31">
         <v>1</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="31">
         <v>5</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N37" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="O37" s="12">
+      <c r="N37" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="O37" s="7">
         <v>0.63119999999999998</v>
       </c>
-      <c r="P37" s="58">
+      <c r="P37" s="49">
         <f t="shared" si="3"/>
         <v>0.63119999999999998</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="18">
         <f t="shared" si="0"/>
         <v>3.1559999999999997</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="7">
         <v>0.61499999999999999</v>
       </c>
-      <c r="S37" s="27">
+      <c r="S37" s="19">
         <f t="shared" si="1"/>
         <v>3.0750000000000002</v>
       </c>
-      <c r="T37" s="9"/>
+      <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52">
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
         <v>36</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="65">
+      <c r="B38" s="98"/>
+      <c r="C38" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="62"/>
+      <c r="J38" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="56">
         <v>1</v>
       </c>
-      <c r="L38" s="65">
+      <c r="L38" s="56">
         <v>5</v>
       </c>
-      <c r="M38" s="72">
+      <c r="M38" s="63">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N38" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="O38" s="34">
+      <c r="N38" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="O38" s="26">
         <v>0.66910000000000003</v>
       </c>
-      <c r="P38" s="73">
+      <c r="P38" s="64">
         <f t="shared" si="3"/>
         <v>0.66910000000000003</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="Q38" s="18">
         <f t="shared" si="0"/>
         <v>3.3455000000000004</v>
       </c>
-      <c r="R38" s="34">
+      <c r="R38" s="26">
         <v>0.66910000000000003</v>
       </c>
-      <c r="S38" s="27">
+      <c r="S38" s="19">
         <f t="shared" si="1"/>
         <v>3.3455000000000004</v>
       </c>
-      <c r="T38" s="74"/>
+      <c r="T38" s="65"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51">
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42">
         <v>37</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="K39" s="68">
+      <c r="B39" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="59">
         <v>1</v>
       </c>
-      <c r="L39" s="68">
+      <c r="L39" s="59">
         <v>5</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N39" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="O39" s="30">
+      <c r="N39" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="22">
         <v>0.31230000000000002</v>
       </c>
-      <c r="P39" s="70">
+      <c r="P39" s="61">
         <f t="shared" si="3"/>
         <v>0.31230000000000002</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="18">
         <f t="shared" si="0"/>
         <v>1.5615000000000001</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="22">
         <v>0.31230000000000002</v>
       </c>
-      <c r="S39" s="27">
+      <c r="S39" s="19">
         <f t="shared" si="1"/>
         <v>1.5615000000000001</v>
       </c>
-      <c r="T39" s="31"/>
-    </row>
-    <row r="40" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="49">
-        <f>SUM(Q3:Q39)</f>
-        <v>123.00550000000001</v>
-      </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3">
-        <f>SUM(S3:S39)</f>
-        <v>114.66550000000004</v>
-      </c>
-      <c r="T40" s="17"/>
-      <c r="U40" s="1">
-        <f ca="1">U40:AA45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="4">
-        <f>SUM(P3:P39)</f>
-        <v>24.690100000000008</v>
-      </c>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5">
-        <f>S40/5</f>
-        <v>22.933100000000007</v>
-      </c>
-      <c r="T41" s="6"/>
+      <c r="T39" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K41:O41"/>
+  <mergeCells count="9">
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="A1:R1"/>
-    <mergeCell ref="K40:O40"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B38"/>
   </mergeCells>
-  <conditionalFormatting sqref="P41:Q41 T41">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D908242-0CAE-411C-A7D1-5924318D99E1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q40">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F622E2B-A576-4D2B-B2E4-75B1CD932C65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3:M39">
     <cfRule type="colorScale" priority="91">
       <colorScale>
@@ -4367,71 +4196,45 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N11" r:id="rId1" xr:uid="{5FA5B34B-88E5-4903-A71C-57CDA69B0C29}"/>
-    <hyperlink ref="N16" r:id="rId2" xr:uid="{24578ABD-33AD-4CF1-A582-2DC5530805F8}"/>
-    <hyperlink ref="N17" r:id="rId3" xr:uid="{9960BBEB-4368-4BF4-ABEA-A8471E609C4F}"/>
-    <hyperlink ref="N19" r:id="rId4" xr:uid="{76AD54C3-583B-42F2-AA4F-5799ECCB7BC9}"/>
-    <hyperlink ref="N33" r:id="rId5" xr:uid="{AB1554AF-9806-4451-AB26-DFDEEDF6BC6C}"/>
-    <hyperlink ref="N18" r:id="rId6" xr:uid="{18722FC2-7D6B-4ECE-9B63-C01C08C4AFE5}"/>
-    <hyperlink ref="N15" r:id="rId7" xr:uid="{40FC72DC-6624-4691-A68E-F7C868231493}"/>
-    <hyperlink ref="N3" r:id="rId8" xr:uid="{1BD3077E-FD89-4422-A88E-A98E75BF1214}"/>
-    <hyperlink ref="N4" r:id="rId9" xr:uid="{13B3FE8F-17A5-48BD-9AAF-95419A6070BF}"/>
-    <hyperlink ref="N5" r:id="rId10" xr:uid="{02632643-BF69-4247-8285-202C64B37D8E}"/>
-    <hyperlink ref="N6" r:id="rId11" xr:uid="{8465AE79-CD85-4FA3-99DA-71DB9C9AFE49}"/>
-    <hyperlink ref="N7" r:id="rId12" xr:uid="{9BC81C06-E3C0-43BD-9DA6-A8B470650560}"/>
-    <hyperlink ref="N8" r:id="rId13" xr:uid="{2841DDD3-3799-42A2-925C-FFF5F600609A}"/>
-    <hyperlink ref="N9" r:id="rId14" xr:uid="{5395A0F8-2D59-4E45-9551-05AE0ED318C9}"/>
-    <hyperlink ref="N10" r:id="rId15" xr:uid="{F9DD5EAA-E576-4C1D-9DCF-5432DA4D30B1}"/>
-    <hyperlink ref="N21" r:id="rId16" xr:uid="{3EBB29F5-5618-475C-96B8-9100173E36E3}"/>
-    <hyperlink ref="N13" r:id="rId17" xr:uid="{15F7354C-B832-4332-8A17-5B8298AD2524}"/>
-    <hyperlink ref="N14" r:id="rId18" xr:uid="{A8F0823F-C780-464C-881C-90D228CD27B2}"/>
-    <hyperlink ref="N22" r:id="rId19" xr:uid="{FF02595E-E0E5-47B1-8E98-3D8CF3D0EB28}"/>
-    <hyperlink ref="N23" r:id="rId20" xr:uid="{683F47A5-4E74-4C45-B2D5-4633C7560EFE}"/>
-    <hyperlink ref="N24" r:id="rId21" xr:uid="{27775E7D-3E94-42A4-858D-4CED08A5052C}"/>
-    <hyperlink ref="N25" r:id="rId22" xr:uid="{1154CF23-976B-4527-B8EE-393154165FDE}"/>
-    <hyperlink ref="N26" r:id="rId23" xr:uid="{9F1D052D-BD3C-4D1F-AED4-7047AF4546E3}"/>
-    <hyperlink ref="N27" r:id="rId24" xr:uid="{3F2C9E63-76E4-4702-910B-196E3FFD2269}"/>
-    <hyperlink ref="N28" r:id="rId25" xr:uid="{4890C1DC-C864-4BF6-BC67-B5465B6560C2}"/>
-    <hyperlink ref="N29" r:id="rId26" xr:uid="{02490AD9-BE6A-492B-856C-E8B030BE502D}"/>
-    <hyperlink ref="N32" r:id="rId27" xr:uid="{77A7FA8D-CE62-4E9B-85FA-10A3DD08AE25}"/>
-    <hyperlink ref="N34" r:id="rId28" xr:uid="{1F8943A7-1944-48F9-A0CB-0B1BA47EFD9C}"/>
-    <hyperlink ref="N37" r:id="rId29" xr:uid="{48B83C98-DBCE-4FED-B48D-175DAF3EB571}"/>
-    <hyperlink ref="N36" r:id="rId30" xr:uid="{EDE4B98D-0DB7-4B05-9B62-744374FFE5F7}"/>
-    <hyperlink ref="N38" r:id="rId31" xr:uid="{E4835E77-0E7C-424A-9059-D8944644DEB0}"/>
-    <hyperlink ref="N39" r:id="rId32" xr:uid="{CE0B31FC-C2DD-424A-A9A2-654393FC8C19}"/>
-    <hyperlink ref="N35" r:id="rId33" xr:uid="{163A9691-05B6-4EDE-8FB8-8093CFA0D2F6}"/>
+    <hyperlink ref="N11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N36" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N38" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D908242-0CAE-411C-A7D1-5924318D99E1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P41:Q41 T41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3F622E2B-A576-4D2B-B2E4-75B1CD932C65}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q40</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E90D3905-D18A-4314-85F8-BF4924CFF615}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
